--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +855,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,28 +906,30 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,43 +1017,49 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,14 +1704,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-600</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2138,15 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1982,37 +2155,43 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,19 +2234,25 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2076,31 +2261,37 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2116,20 +2307,20 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2158,63 +2355,69 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2223,7 +2426,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -2299,19 +2514,19 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,22 +2534,28 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -2346,10 +2567,10 @@
         <v>700</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2361,10 +2582,16 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,19 +2684,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2478,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2551,40 +2802,46 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2646,10 +2907,10 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2663,60 +2924,72 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2725,10 +2998,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2740,63 +3013,75 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1100</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -2822,13 +3107,13 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -2839,37 +3124,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>100</v>
+      </c>
+      <c r="R70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,43 +3809,49 @@
         <v>-800</v>
       </c>
       <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,22 +4319,28 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -3919,25 +4352,31 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3980,11 +4421,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -3992,14 +4433,20 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4539,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4107,20 +4566,20 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,34 +4809,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
@@ -4360,16 +4851,22 @@
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,19 +4924,19 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4442,18 +4945,24 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,8 +815,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +868,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,20 +933,20 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,40 +1025,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1050,16 +1070,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1375,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,11 +1771,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-600</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2251,32 +2344,32 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
@@ -2284,14 +2377,17 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2313,8 +2409,8 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
@@ -2322,8 +2418,8 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2361,22 +2460,22 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2384,22 +2483,25 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2408,13 +2510,13 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2423,25 +2525,28 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2508,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2520,7 +2628,7 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2529,7 +2637,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2540,16 +2648,19 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2558,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>700</v>
@@ -2573,7 +2684,7 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2588,10 +2699,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2723,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2808,40 +2934,43 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>1200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
       </c>
       <c r="J54" s="3">
         <v>1100</v>
       </c>
       <c r="K54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2913,7 +3044,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,49 +3073,52 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2992,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3004,7 +3141,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3019,60 +3156,63 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -3080,13 +3220,16 @@
       <c r="R60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3098,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -3113,10 +3256,10 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3141,8 +3287,8 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3151,19 +3297,19 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,49 +3485,52 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
       </c>
       <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
@@ -3815,43 +4001,46 @@
         <v>-800</v>
       </c>
       <c r="G76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-600</v>
       </c>
       <c r="M76" s="3">
         <v>-600</v>
       </c>
       <c r="N76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
       <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,43 +4539,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4370,13 +4587,16 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4415,8 +4636,8 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4427,8 +4648,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +4772,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4572,16 +4802,16 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,37 +5058,40 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
@@ -4857,16 +5103,19 @@
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,13 +5164,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4930,39 +5182,42 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,8 +825,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,8 +881,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -936,20 +950,20 @@
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,43 +1045,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1073,16 +1093,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1418,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1774,11 +1835,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-600</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2347,32 +2440,32 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
@@ -2380,14 +2473,17 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2412,8 +2508,8 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
@@ -2421,8 +2517,8 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2463,22 +2562,22 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2486,25 +2585,28 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2513,13 +2615,13 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2528,25 +2630,28 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2619,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2631,7 +2739,7 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2640,7 +2748,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2662,8 +2773,8 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2672,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -2687,7 +2798,7 @@
         <v>700</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2702,10 +2813,13 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2846,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2937,40 +3063,43 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
       </c>
       <c r="K54" s="3">
         <v>1100</v>
       </c>
       <c r="L54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3047,7 +3178,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3064,61 +3195,67 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
-        <v>600</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3144,7 +3281,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3159,19 +3296,22 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,43 +3319,43 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -3223,16 +3363,19 @@
       <c r="S60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3244,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
@@ -3259,10 +3402,10 @@
         <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,8 +3436,8 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3300,19 +3446,19 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,52 +3643,55 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18200</v>
+        <v>-19100</v>
       </c>
       <c r="E72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,7 +4181,7 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
@@ -4004,43 +4190,46 @@
         <v>-800</v>
       </c>
       <c r="H76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-600</v>
       </c>
       <c r="N76" s="3">
         <v>-600</v>
       </c>
       <c r="O76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
       </c>
       <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,37 +4768,37 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4590,13 +4807,16 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,19 +5002,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4805,16 +5035,16 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,40 +5304,43 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
@@ -5106,16 +5352,19 @@
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,16 +5416,19 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5185,39 +5437,42 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,11 +841,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,11 +903,11 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,16 +961,18 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>5</v>
@@ -953,23 +980,23 @@
       <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1081,76 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>600</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1461,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,13 +1932,19 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1838,14 +1959,14 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,25 +2485,27 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2341,37 +2514,43 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2443,14 +2628,14 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2459,31 +2644,37 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2511,20 +2702,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2565,75 +2762,81 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2642,7 +2845,7 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2730,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -2742,19 +2957,19 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,19 +2977,25 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2786,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
@@ -2801,10 +3022,10 @@
         <v>700</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2816,10 +3037,16 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2969,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,20 +3287,26 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
@@ -3066,40 +3317,46 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3181,10 +3442,10 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,60 +3474,66 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3272,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3284,10 +3557,10 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3299,89 +3572,101 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3390,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
@@ -3405,13 +3690,13 @@
         <v>300</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3422,22 +3707,28 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3449,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+      <c r="V66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>100</v>
+      </c>
+      <c r="V70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-17500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-800</v>
       </c>
       <c r="I76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,34 +5186,40 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -4798,25 +5231,31 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5276,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4875,11 +5316,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
@@ -4887,14 +5328,20 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,25 +5458,31 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5038,20 +5497,20 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,46 +5792,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
@@ -5355,16 +5846,22 @@
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,40 +5916,46 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5461,18 +5964,24 @@
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,8 +854,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
@@ -877,13 +884,16 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -909,8 +919,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,10 +986,10 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>5</v>
@@ -986,20 +1000,20 @@
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>5</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,52 +1104,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>4900</v>
-      </c>
-      <c r="E14" s="3">
-        <v>600</v>
       </c>
       <c r="F14" s="3">
         <v>600</v>
       </c>
       <c r="G14" s="3">
+        <v>600</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
       <c r="P14" s="3">
         <v>100</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1141,16 +1161,19 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-2600</v>
       </c>
       <c r="E18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1442,81 +1476,87 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1546,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,16 +1996,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1965,11 +2026,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2634,32 +2727,32 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
@@ -2667,14 +2760,17 @@
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2708,8 +2804,8 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
@@ -2717,8 +2813,8 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2768,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2791,14 +2890,17 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,19 +2908,19 @@
         <v>1800</v>
       </c>
       <c r="E46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2827,13 +2929,13 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -2842,25 +2944,28 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2951,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -2963,7 +3071,7 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2972,7 +3080,7 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3013,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>700</v>
@@ -3028,7 +3139,7 @@
         <v>700</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3043,10 +3154,13 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3214,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,23 +3416,26 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
@@ -3323,40 +3449,43 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
       </c>
       <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3448,7 +3579,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3465,70 +3596,76 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
+        <v>800</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,7 +3673,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3551,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3563,7 +3700,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3578,72 +3715,75 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,16 +3803,16 @@
         <v>2100</v>
       </c>
       <c r="E61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3681,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
@@ -3696,10 +3839,10 @@
         <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3746,19 +3892,19 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,61 +4116,64 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
       </c>
       <c r="J66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,25 +4726,28 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
@@ -4570,43 +4756,46 @@
         <v>-800</v>
       </c>
       <c r="K76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-600</v>
       </c>
       <c r="Q76" s="3">
         <v>-600</v>
       </c>
       <c r="R76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-300</v>
       </c>
       <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,55 +5406,58 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -5249,13 +5466,16 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5498,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5322,8 +5543,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
@@ -5334,14 +5555,17 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,28 +5691,31 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5503,16 +5733,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,49 +6041,52 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
@@ -5852,16 +6098,19 @@
         <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,25 +6171,28 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -5949,39 +6201,42 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,7 +770,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +864,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,7 +906,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -922,8 +932,8 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,10 +1003,10 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
@@ -1003,20 +1017,20 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,55 +1124,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4900</v>
-      </c>
-      <c r="F14" s="3">
-        <v>600</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
       </c>
       <c r="H14" s="3">
+        <v>600</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1164,16 +1184,19 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,87 +1513,93 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1589,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2071,8 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2029,11 +2090,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2730,32 +2823,32 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
@@ -2763,19 +2856,22 @@
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2807,8 +2903,8 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
@@ -2816,8 +2912,8 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2870,22 +2969,22 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2893,37 +2992,40 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="E46" s="3">
         <v>1800</v>
       </c>
       <c r="F46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2932,13 +3034,13 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2947,25 +3049,28 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3062,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -3074,7 +3182,7 @@
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3083,7 +3191,7 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3127,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
@@ -3142,7 +3253,7 @@
         <v>700</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3157,10 +3268,13 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3337,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>100</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,26 +3542,29 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
@@ -3452,40 +3578,43 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3582,7 +3713,7 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3599,73 +3730,79 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
+        <v>800</v>
+      </c>
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1000</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
-      </c>
-      <c r="V58" s="3">
-        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3691,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3703,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3718,75 +3855,78 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
@@ -3794,28 +3934,31 @@
       <c r="W60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="E61" s="3">
         <v>2100</v>
       </c>
       <c r="F61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3827,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -3842,10 +3985,10 @@
         <v>300</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3895,19 +4041,19 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,64 +4274,67 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
       </c>
       <c r="K66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,28 +4912,31 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
@@ -4759,43 +4945,46 @@
         <v>-800</v>
       </c>
       <c r="L76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-600</v>
       </c>
       <c r="R76" s="3">
         <v>-600</v>
       </c>
       <c r="S76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-300</v>
       </c>
       <c r="W76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,49 +5635,49 @@
         <v>-600</v>
       </c>
       <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5469,13 +5686,16 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,11 +5731,11 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
@@ -5558,14 +5779,17 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5705,20 +5935,20 @@
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5736,16 +5966,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,52 +6287,55 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
@@ -6101,16 +6347,19 @@
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,28 +6423,31 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6204,39 +6456,42 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,10 +780,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -829,16 +836,22 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -867,11 +880,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
@@ -897,22 +910,28 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -935,11 +954,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,28 +1016,30 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
@@ -1020,23 +1047,23 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>5</v>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1160,88 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,76 +1583,88 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1632,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2074,11 +2195,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2093,14 +2214,14 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,76 +2471,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,37 +2832,39 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2700,37 +2873,43 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2826,14 +3011,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2842,42 +3027,48 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2906,20 +3097,20 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2972,87 +3169,93 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3061,7 +3264,7 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
@@ -3069,8 +3272,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3346,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3173,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -3185,19 +3400,19 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3241,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>700</v>
@@ -3256,10 +3477,10 @@
         <v>700</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3271,10 +3492,16 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3460,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,32 +3790,38 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
@@ -3581,40 +3832,46 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
       <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,7 +3935,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3716,10 +3977,10 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3733,93 +3994,105 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3831,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3843,10 +4116,10 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3858,113 +4131,125 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
       </c>
       <c r="P60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>900</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
       </c>
       <c r="V60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="W60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="X60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F61" s="3">
         <v>3200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3973,10 +4258,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
@@ -3988,13 +4273,13 @@
         <v>300</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4005,8 +4290,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4044,22 +4335,22 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>800</v>
       </c>
       <c r="V66" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="W66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="X66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,13 +4836,19 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>100</v>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-29300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-26400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-17400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-17000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-800</v>
       </c>
       <c r="M76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,46 +6053,52 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
@@ -5677,25 +6110,31 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>-100</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,14 +6175,14 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -5758,11 +6199,11 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5770,11 +6211,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
@@ -5782,14 +6223,20 @@
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,37 +6377,43 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5969,20 +6428,20 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,58 +6775,64 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
@@ -6350,16 +6841,22 @@
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,52 +6923,58 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6480,18 +6983,24 @@
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -786,7 +790,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,7 +861,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -886,8 +893,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
@@ -916,25 +923,28 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -960,8 +970,8 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,19 +1031,20 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -1039,10 +1053,10 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
@@ -1053,20 +1067,20 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>5</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,55 +1195,55 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>600</v>
       </c>
       <c r="J14" s="3">
         <v>600</v>
       </c>
       <c r="K14" s="3">
+        <v>600</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1232,16 +1252,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1589,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1717,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2201,8 +2262,8 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2220,11 +2281,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E41" s="3">
         <v>13200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3017,32 +3110,32 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>5</v>
@@ -3050,14 +3143,17 @@
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3065,13 +3161,13 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3103,8 +3199,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>5</v>
@@ -3112,8 +3208,8 @@
       <c r="T44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3130,13 +3226,16 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3175,22 +3274,22 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3198,46 +3297,49 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1800</v>
       </c>
       <c r="H46" s="3">
         <v>1800</v>
       </c>
       <c r="I46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3246,13 +3348,13 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3261,25 +3363,28 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3394,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
@@ -3406,7 +3514,7 @@
         <v>300</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3415,7 +3523,7 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3468,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
         <v>700</v>
@@ -3483,7 +3594,7 @@
         <v>700</v>
       </c>
       <c r="U49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3498,10 +3609,13 @@
         <v>0</v>
       </c>
       <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3705,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,35 +3919,38 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
@@ -3838,40 +3964,43 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,10 +4066,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3983,7 +4114,7 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -4000,82 +4131,88 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1000</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>200</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -4095,7 +4232,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4110,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -4122,7 +4259,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4137,19 +4274,22 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4160,61 +4300,61 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
       </c>
       <c r="P60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>300</v>
       </c>
       <c r="Y60" s="3">
         <v>300</v>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,28 +4374,28 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2100</v>
       </c>
       <c r="H61" s="3">
         <v>2100</v>
       </c>
       <c r="I61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4264,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
@@ -4279,10 +4422,10 @@
         <v>300</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4341,19 +4487,19 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,64 +4759,64 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
       <c r="N66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
       </c>
       <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
-      </c>
-      <c r="X66" s="3">
-        <v>300</v>
       </c>
       <c r="Y66" s="3">
         <v>300</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4851,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>100</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,37 +5469,40 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E76" s="3">
         <v>13300</v>
       </c>
-      <c r="E76" s="3">
-        <v>100</v>
-      </c>
       <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
       </c>
       <c r="M76" s="3">
         <v>-800</v>
@@ -5325,43 +5511,46 @@
         <v>-800</v>
       </c>
       <c r="O76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-600</v>
       </c>
       <c r="U76" s="3">
         <v>-600</v>
       </c>
       <c r="V76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-700</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-300</v>
       </c>
       <c r="Y76" s="3">
         <v>-300</v>
       </c>
       <c r="Z76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,67 +6273,70 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -6128,13 +6345,16 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6181,11 +6402,11 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -6205,8 +6426,8 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6217,8 +6438,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
@@ -6229,14 +6450,17 @@
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,19 +6610,22 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
@@ -6403,20 +6633,20 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6434,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,61 +7024,64 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E100" s="3">
         <v>12400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
@@ -6847,16 +7093,19 @@
         <v>200</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,37 +7178,40 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E102" s="3">
         <v>11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6968,39 +7220,42 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
@@ -793,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,7 +871,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -896,8 +903,8 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
@@ -926,28 +933,31 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -973,8 +983,8 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,22 +1045,23 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
@@ -1056,10 +1070,10 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
@@ -1070,20 +1084,20 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>5</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,55 +1218,55 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>600</v>
       </c>
       <c r="K14" s="3">
         <v>600</v>
       </c>
       <c r="L14" s="3">
+        <v>600</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
-        <v>100</v>
-      </c>
       <c r="U14" s="3">
         <v>100</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1255,16 +1275,19 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
         <v>800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,16 +1582,17 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1760,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,28 +2300,31 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2284,11 +2345,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E41" s="3">
         <v>41700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3113,32 +3206,32 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
@@ -3146,31 +3239,34 @@
       <c r="Y43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -3202,8 +3298,8 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
@@ -3211,8 +3307,8 @@
       <c r="U44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3229,16 +3325,19 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3277,22 +3376,22 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3300,49 +3399,52 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E46" s="3">
         <v>42000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1800</v>
       </c>
       <c r="I46" s="3">
         <v>1800</v>
       </c>
       <c r="J46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3351,13 +3453,13 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3366,25 +3468,28 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3505,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -3517,7 +3625,7 @@
         <v>300</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3526,7 +3634,7 @@
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3582,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>700</v>
@@ -3597,7 +3708,7 @@
         <v>700</v>
       </c>
       <c r="V49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3612,10 +3723,13 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3828,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>100</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,38 +4045,41 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E54" s="3">
         <v>42000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
@@ -3967,40 +4093,43 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>1200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1100</v>
       </c>
       <c r="S54" s="3">
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,22 +4187,23 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -4117,7 +4248,7 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,74 +4279,77 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1000</v>
       </c>
       <c r="U58" s="3">
         <v>1000</v>
       </c>
       <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>200</v>
       </c>
       <c r="AA58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -4235,7 +4372,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4250,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -4262,7 +4399,7 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4277,24 +4414,27 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -4303,61 +4443,61 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
       </c>
       <c r="Q60" s="3">
+        <v>900</v>
+      </c>
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>300</v>
       </c>
       <c r="Z60" s="3">
         <v>300</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,28 +4520,28 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2100</v>
       </c>
       <c r="I61" s="3">
         <v>2100</v>
       </c>
       <c r="J61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4410,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
@@ -4425,10 +4568,10 @@
         <v>300</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4490,19 +4636,19 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,76 +4905,79 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
       </c>
       <c r="Q66" s="3">
+        <v>900</v>
+      </c>
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>300</v>
       </c>
       <c r="Z66" s="3">
         <v>300</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5022,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>100</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,40 +5655,43 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E76" s="3">
         <v>41900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13300</v>
       </c>
-      <c r="F76" s="3">
-        <v>100</v>
-      </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
       </c>
       <c r="N76" s="3">
         <v>-800</v>
@@ -5514,43 +5700,46 @@
         <v>-800</v>
       </c>
       <c r="P76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>-300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-600</v>
       </c>
       <c r="V76" s="3">
         <v>-600</v>
       </c>
       <c r="W76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-300</v>
       </c>
       <c r="Z76" s="3">
         <v>-300</v>
       </c>
       <c r="AA76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,70 +6490,73 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-600</v>
       </c>
       <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6348,13 +6565,16 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6405,11 +6626,11 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6624,11 +6854,11 @@
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -6636,20 +6866,20 @@
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6667,16 +6897,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,64 +7270,67 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>29100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
@@ -7096,16 +7342,19 @@
         <v>200</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,40 +7430,43 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>28600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7223,39 +7475,42 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
         <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -1398,8 +1398,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1900</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
@@ -1478,8 +1478,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-1800</v>
       </c>
       <c r="E18" s="3">
         <v>-600</v>
@@ -1588,8 +1588,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1668,8 +1668,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-1500</v>
       </c>
       <c r="E21" s="3">
         <v>-500</v>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
@@ -2548,8 +2548,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
@@ -7439,7 +7439,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E102" s="3">
         <v>28600</v>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,141 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>4900</v>
       </c>
       <c r="E8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
@@ -800,10 +807,10 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -856,16 +863,22 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>2400</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -874,10 +887,10 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -906,11 +919,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>5</v>
@@ -936,34 +949,40 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -986,11 +1005,11 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>5</v>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,25 +1088,25 @@
         <v>400</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
@@ -1087,23 +1114,23 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>5</v>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>5</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1239,100 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1444,96 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1541,85 @@
         <v>-1800</v>
       </c>
       <c r="E18" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,22 +1648,24 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1663,88 +1730,100 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1764,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1803,16 +1882,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2348,14 +2469,14 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,23 +2676,29 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,49 +3179,51 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F41" s="3">
         <v>40600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -3059,37 +3232,43 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,16 +3347,22 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3209,14 +3394,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3225,54 +3410,60 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3301,20 +3492,20 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3328,22 +3519,28 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3379,99 +3576,105 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F46" s="3">
         <v>40900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>42000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
@@ -3480,7 +3683,7 @@
         <v>100</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
         <v>100</v>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,16 +3777,22 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3616,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
@@ -3628,19 +3843,19 @@
         <v>300</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3648,25 +3863,31 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3696,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>700</v>
@@ -3711,10 +3932,10 @@
         <v>700</v>
       </c>
       <c r="W49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="X49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3726,10 +3947,16 @@
         <v>0</v>
       </c>
       <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3951,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>100</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,44 +4293,50 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F54" s="3">
         <v>40900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>42000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
@@ -4096,40 +4347,46 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
       <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,28 +4447,30 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4251,10 +4512,10 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4268,96 +4529,108 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4366,19 +4639,19 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -4390,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -4402,10 +4675,10 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4417,99 +4690,111 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1100</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
       <c r="T60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>900</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>600</v>
       </c>
       <c r="Y60" s="3">
         <v>800</v>
       </c>
       <c r="Z60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AA60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="AB60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4523,31 +4808,31 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4556,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
@@ -4571,13 +4856,13 @@
         <v>300</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -4588,31 +4873,37 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4639,22 +4930,22 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
-        <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
       <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>800</v>
-      </c>
-      <c r="X66" s="3">
-        <v>600</v>
       </c>
       <c r="Y66" s="3">
         <v>800</v>
       </c>
       <c r="Z66" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AA66" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="AB66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5193,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>100</v>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-35900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-34400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-26400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-16700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F76" s="3">
         <v>40400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>41900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>13300</v>
       </c>
-      <c r="G76" s="3">
-        <v>100</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,58 +6920,64 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
@@ -6556,25 +6989,31 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,40 +7042,42 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -6653,11 +7094,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6665,11 +7106,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
@@ -6677,14 +7118,20 @@
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,13 +7296,19 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -6857,35 +7316,35 @@
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6900,20 +7359,20 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>100</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,70 +7758,76 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>29100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>12400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>200</v>
@@ -7345,16 +7836,22 @@
         <v>200</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7362,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -7433,64 +7930,70 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>28600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>11100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7499,18 +8002,24 @@
         <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,148 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
@@ -813,7 +817,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -869,20 +873,23 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
@@ -893,7 +900,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -925,8 +932,8 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
@@ -955,37 +962,40 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1011,8 +1021,8 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,22 +1096,22 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -1106,10 +1120,10 @@
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>5</v>
@@ -1120,20 +1134,20 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>5</v>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>5</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,20 +1262,23 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>18300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1266,55 +1286,55 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4900</v>
-      </c>
-      <c r="M14" s="3">
-        <v>600</v>
       </c>
       <c r="N14" s="3">
         <v>600</v>
       </c>
       <c r="O14" s="3">
+        <v>600</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>600</v>
       </c>
-      <c r="W14" s="3">
-        <v>100</v>
-      </c>
       <c r="X14" s="3">
         <v>100</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1323,16 +1343,19 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="3">
         <v>800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,11 +1363,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1662,13 +1696,13 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1736,94 +1770,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-200</v>
       </c>
       <c r="Y21" s="3">
         <v>-200</v>
       </c>
       <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1849,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1888,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1908,111 +1948,117 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-200</v>
       </c>
       <c r="Y23" s="3">
         <v>-200</v>
       </c>
       <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-200</v>
       </c>
       <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-200</v>
       </c>
       <c r="Y27" s="3">
         <v>-200</v>
       </c>
       <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2475,11 +2536,11 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-600</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2694,14 +2764,14 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,20 +3443,23 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -3400,32 +3493,32 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
       <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>5</v>
@@ -3433,40 +3526,43 @@
       <c r="AB43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC43" s="3">
-        <v>0</v>
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3498,8 +3594,8 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>5</v>
@@ -3507,8 +3603,8 @@
       <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3525,25 +3621,28 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3582,22 +3681,22 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3605,58 +3704,61 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
+      <c r="AC45" s="3">
+        <v>0</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E46" s="3">
         <v>24900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>42000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1800</v>
       </c>
       <c r="L46" s="3">
         <v>1800</v>
       </c>
       <c r="M46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -3665,13 +3767,13 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
@@ -3680,25 +3782,28 @@
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
       <c r="AB46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,11 +3900,11 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -3837,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>300</v>
@@ -3849,7 +3957,7 @@
         <v>300</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3858,7 +3966,7 @@
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
@@ -3869,28 +3977,31 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3923,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="U49" s="3">
         <v>700</v>
@@ -3938,7 +4049,7 @@
         <v>700</v>
       </c>
       <c r="Y49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3953,10 +4064,13 @@
         <v>0</v>
       </c>
       <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4196,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>100</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,47 +4422,50 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E54" s="3">
         <v>27000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
@@ -4353,40 +4479,43 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
       </c>
       <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
       </c>
       <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
       <c r="AC54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,31 +4579,32 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4518,7 +4649,7 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
@@ -4535,19 +4666,22 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -4555,86 +4689,89 @@
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>800</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
       </c>
       <c r="T58" s="3">
+        <v>800</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1000</v>
       </c>
       <c r="X58" s="3">
         <v>1000</v>
       </c>
       <c r="Y58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>200</v>
       </c>
       <c r="AD58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -4645,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -4654,7 +4791,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4669,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -4681,7 +4818,7 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4696,34 +4833,37 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3">
-        <v>0</v>
-      </c>
       <c r="AC59" s="3">
         <v>0</v>
       </c>
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6900</v>
+        <v>4700</v>
       </c>
       <c r="E60" s="3">
         <v>6900</v>
       </c>
       <c r="F60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
@@ -4731,61 +4871,61 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
       <c r="T60" s="3">
+        <v>900</v>
+      </c>
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>300</v>
       </c>
       <c r="AC60" s="3">
         <v>300</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4814,28 +4957,28 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2100</v>
       </c>
       <c r="L61" s="3">
         <v>2100</v>
       </c>
       <c r="M61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>100</v>
-      </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4847,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>300</v>
@@ -4862,10 +5005,10 @@
         <v>300</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -4879,19 +5022,22 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -4905,8 +5051,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4936,19 +5082,19 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,85 +5378,88 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7600</v>
+        <v>5300</v>
       </c>
       <c r="E66" s="3">
         <v>7600</v>
       </c>
       <c r="F66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>900</v>
       </c>
       <c r="T66" s="3">
+        <v>900</v>
+      </c>
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>800</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>300</v>
       </c>
       <c r="AC66" s="3">
         <v>300</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5534,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>100</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-13300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-12800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-12600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,49 +6212,52 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E76" s="3">
         <v>19400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13300</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
       <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-800</v>
       </c>
       <c r="Q76" s="3">
         <v>-800</v>
@@ -6080,43 +6266,46 @@
         <v>-800</v>
       </c>
       <c r="S76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>-300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-600</v>
       </c>
       <c r="Y76" s="3">
         <v>-600</v>
       </c>
       <c r="Z76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-700</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>-300</v>
       </c>
       <c r="AC76" s="3">
         <v>-300</v>
       </c>
       <c r="AD76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,79 +7140,82 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>-600</v>
       </c>
       <c r="L89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
@@ -7007,13 +7224,16 @@
         <v>-100</v>
       </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,20 +7264,21 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -7070,17 +7291,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -7100,8 +7321,8 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7112,8 +7333,8 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
@@ -7124,14 +7345,17 @@
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,17 +7529,20 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
@@ -7322,11 +7552,11 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -7334,20 +7564,20 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7365,16 +7595,16 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,73 +8007,76 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>29100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
@@ -7842,28 +8088,31 @@
         <v>200</v>
       </c>
       <c r="AB100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC100" s="3">
         <v>100</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7936,49 +8185,52 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7987,39 +8239,42 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
         <v>100</v>
       </c>
       <c r="AB102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBFM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>SBFM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
@@ -820,7 +824,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -876,23 +880,26 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
@@ -903,7 +910,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -935,8 +942,8 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>5</v>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,31 +984,31 @@
         <v>2000</v>
       </c>
       <c r="E10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -1024,8 +1034,8 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>5</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,34 +1100,35 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -1123,10 +1137,10 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
@@ -1137,20 +1151,20 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>5</v>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>5</v>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>5</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,23 +1282,26 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>18300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1289,55 +1309,55 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>600</v>
       </c>
       <c r="O14" s="3">
         <v>600</v>
       </c>
       <c r="P14" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>600</v>
       </c>
-      <c r="X14" s="3">
-        <v>100</v>
-      </c>
       <c r="Y14" s="3">
         <v>100</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1346,16 +1366,19 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="3">
         <v>800</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,11 +1389,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>200</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1699,13 +1733,13 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-200</v>
       </c>
       <c r="Z21" s="3">
         <v>-200</v>
       </c>
       <c r="AA21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1892,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1931,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1951,117 +1991,123 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
       </c>
       <c r="Z23" s="3">
         <v>-200</v>
       </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
       <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-200</v>
       </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
       <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
       </c>
       <c r="Z27" s="3">
         <v>-200</v>
       </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2539,11 +2600,11 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-200</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -2767,14 +2837,14 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
       <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
       <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E41" s="3">
         <v>19700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,14 +3548,14 @@
         <v>2000</v>
       </c>
       <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -3496,32 +3589,32 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
       <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>5</v>
@@ -3529,43 +3622,46 @@
       <c r="AC43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD43" s="3">
-        <v>0</v>
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
         <v>4300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -3597,8 +3693,8 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>5</v>
@@ -3606,8 +3702,8 @@
       <c r="Y44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3624,28 +3720,31 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3684,22 +3783,22 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
@@ -3707,61 +3806,64 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>5</v>
+      <c r="AD45" s="3">
+        <v>0</v>
       </c>
       <c r="AE45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E46" s="3">
         <v>26100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1800</v>
       </c>
       <c r="M46" s="3">
         <v>1800</v>
       </c>
       <c r="N46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -3770,13 +3872,13 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
@@ -3785,25 +3887,28 @@
         <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
-        <v>100</v>
-      </c>
       <c r="AC46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,23 +3996,26 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>1100</v>
       </c>
       <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -3948,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>300</v>
@@ -3960,7 +4068,7 @@
         <v>300</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
@@ -3969,7 +4077,7 @@
         <v>100</v>
       </c>
       <c r="AB48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3989,22 +4100,22 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -4037,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>700</v>
@@ -4052,7 +4163,7 @@
         <v>700</v>
       </c>
       <c r="Z49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -4067,10 +4178,13 @@
         <v>0</v>
       </c>
       <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4319,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,50 +4548,53 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E54" s="3">
         <v>28400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
@@ -4482,40 +4608,43 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>1200</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1100</v>
       </c>
       <c r="W54" s="3">
         <v>1100</v>
       </c>
       <c r="X54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>300</v>
       </c>
       <c r="AA54" s="3">
         <v>300</v>
       </c>
       <c r="AB54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AC54" s="3">
-        <v>0</v>
-      </c>
       <c r="AD54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,34 +4710,35 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4652,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
@@ -4669,97 +4800,103 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
       <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1000</v>
       </c>
       <c r="Y58" s="3">
         <v>1000</v>
       </c>
       <c r="Z58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>300</v>
-      </c>
-      <c r="AD58" s="3">
-        <v>200</v>
       </c>
       <c r="AE58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,14 +4904,14 @@
         <v>2900</v>
       </c>
       <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -4785,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -4794,7 +4931,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4809,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -4821,7 +4958,7 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4836,37 +4973,40 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
-      <c r="AC59" s="3">
-        <v>0</v>
-      </c>
       <c r="AD59" s="3">
         <v>0</v>
       </c>
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6900</v>
       </c>
       <c r="F60" s="3">
         <v>6900</v>
       </c>
       <c r="G60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
@@ -4874,61 +5014,61 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>800</v>
       </c>
       <c r="S60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>900</v>
       </c>
       <c r="U60" s="3">
+        <v>900</v>
+      </c>
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>300</v>
       </c>
       <c r="AD60" s="3">
         <v>300</v>
@@ -4936,13 +5076,16 @@
       <c r="AE60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4960,28 +5103,28 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2100</v>
       </c>
       <c r="M61" s="3">
         <v>2100</v>
       </c>
       <c r="N61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>100</v>
-      </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4993,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
@@ -5008,10 +5151,10 @@
         <v>300</v>
       </c>
       <c r="Z61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5034,13 +5180,13 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -5054,8 +5200,8 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -5085,19 +5231,19 @@
         <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,88 +5536,91 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7600</v>
       </c>
       <c r="F66" s="3">
         <v>7600</v>
       </c>
       <c r="G66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
       </c>
       <c r="S66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>900</v>
       </c>
       <c r="U66" s="3">
+        <v>900</v>
+      </c>
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>800</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>300</v>
       </c>
       <c r="AD66" s="3">
         <v>300</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5705,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>100</v>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-13300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-12800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-12600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,52 +6398,55 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13300</v>
       </c>
-      <c r="J76" s="3">
-        <v>100</v>
-      </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-800</v>
       </c>
       <c r="R76" s="3">
         <v>-800</v>
@@ -6269,43 +6455,46 @@
         <v>-800</v>
       </c>
       <c r="T76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
       <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-600</v>
       </c>
       <c r="Z76" s="3">
         <v>-600</v>
       </c>
       <c r="AA76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-700</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>-300</v>
       </c>
       <c r="AD76" s="3">
         <v>-300</v>
       </c>
       <c r="AE76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AF76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
       <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,82 +7357,85 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-600</v>
       </c>
       <c r="L89" s="3">
         <v>-600</v>
       </c>
       <c r="M89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
@@ -7227,13 +7444,16 @@
         <v>-100</v>
       </c>
       <c r="AD89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,23 +7485,24 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -7294,17 +7515,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
@@ -7324,8 +7545,8 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -7336,8 +7557,8 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>5</v>
@@ -7348,14 +7569,17 @@
       <c r="AC91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,20 +7759,23 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
@@ -7555,11 +7785,11 @@
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
@@ -7567,20 +7797,20 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7598,16 +7828,16 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,76 +8253,79 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>29100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>200</v>
@@ -8091,31 +8337,34 @@
         <v>200</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD100" s="3">
         <v>100</v>
       </c>
       <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -8188,52 +8437,55 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -8242,39 +8494,42 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
       <c r="AB102" s="3">
         <v>100</v>
       </c>
       <c r="AC102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD102" s="3">
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
